--- a/Data/SunPath/SunPath-Dec31.xlsx
+++ b/Data/SunPath/SunPath-Dec31.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.84396952795736</v>
+        <v>2.72269762632665</v>
       </c>
       <c r="C2">
-        <v>-1.41900988029902</v>
+        <v>-1.42822659793343</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.29782722569241</v>
+        <v>2.20877994306072</v>
       </c>
       <c r="C3">
-        <v>-1.34603654415477</v>
+        <v>-1.34413017572872</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.07001420117412</v>
+        <v>2.0128234235525</v>
       </c>
       <c r="C4">
-        <v>-1.23931447038897</v>
+        <v>-1.2324379461675</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.9673597265578</v>
+        <v>1.92699513802892</v>
       </c>
       <c r="C5">
-        <v>-1.1224507728663</v>
+        <v>-1.11304599463582</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.91697325931654</v>
+        <v>1.88616897377984</v>
       </c>
       <c r="C6">
-        <v>-1.00182019284223</v>
+        <v>-0.990847558193661</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.89266496804216</v>
+        <v>1.8678285368342</v>
       </c>
       <c r="C7">
-        <v>-0.879580441538279</v>
+        <v>-0.867488113927962</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.88344504788099</v>
+        <v>1.86261458101908</v>
       </c>
       <c r="C8">
-        <v>-0.756671947255202</v>
+        <v>-0.743697598636917</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.88410684744159</v>
+        <v>1.86611617158461</v>
       </c>
       <c r="C9">
-        <v>-0.633603906707515</v>
+        <v>-0.619884429441691</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.89200536390676</v>
+        <v>1.87611554691127</v>
       </c>
       <c r="C10">
-        <v>-0.510713599155212</v>
+        <v>-0.496331533229657</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.90578991110544</v>
+        <v>1.89151150950268</v>
       </c>
       <c r="C11">
-        <v>-0.388271008569503</v>
+        <v>-0.373276691736775</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.9248521264603</v>
+        <v>1.9118533131538</v>
       </c>
       <c r="C12">
-        <v>-0.266530494891438</v>
+        <v>-0.250953725962681</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.94907302247668</v>
+        <v>1.93713038229863</v>
       </c>
       <c r="C13">
-        <v>-0.145763356088794</v>
+        <v>-0.129620165198931</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.97871200478066</v>
+        <v>1.96768498658456</v>
       </c>
       <c r="C14">
-        <v>-0.0262850039355322</v>
+        <v>-0.00958213573197017</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.01437367508415</v>
+        <v>2.00419424289518</v>
       </c>
       <c r="C15">
-        <v>0.0915159802873779</v>
+        <v>0.108777399099895</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.05702520446173</v>
+        <v>2.04769948714493</v>
       </c>
       <c r="C16">
-        <v>0.207141387469443</v>
+        <v>0.224961862636218</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.10805217850577</v>
+        <v>2.0996740385108</v>
       </c>
       <c r="C17">
-        <v>0.319933709691217</v>
+        <v>0.338309808558865</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.16934400791566</v>
+        <v>2.16212254285671</v>
       </c>
       <c r="C18">
-        <v>0.429006141767585</v>
+        <v>0.447921509433471</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.24339018862854</v>
+        <v>2.23769392097943</v>
       </c>
       <c r="C19">
-        <v>0.533143829598722</v>
+        <v>0.552553924846572</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.33333509510132</v>
+        <v>2.32975229994216</v>
       </c>
       <c r="C20">
-        <v>0.63066924545036</v>
+        <v>0.650475516135123</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.44285989650333</v>
+        <v>2.44225955381315</v>
       </c>
       <c r="C21">
-        <v>0.71927573427635</v>
+        <v>0.739284198455459</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.57561737681781</v>
+        <v>2.57915462298205</v>
       </c>
       <c r="C22">
-        <v>0.795870715744698</v>
+        <v>0.815733722050823</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.73380947714577</v>
+        <v>2.74274984646044</v>
       </c>
       <c r="C23">
-        <v>0.856557246342881</v>
+        <v>0.875714612893509</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.91574197532029</v>
+        <v>2.93096206325989</v>
       </c>
       <c r="C24">
-        <v>0.897006575138832</v>
+        <v>0.914680291045659</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-3.1134667280733</v>
+        <v>-3.1347518999942</v>
       </c>
       <c r="C25">
-        <v>0.913461874374685</v>
+        <v>0.928784169453944</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-2.96986963956947</v>
+        <v>-2.94410230301596</v>
       </c>
       <c r="C26">
-        <v>0.9041401309718</v>
+        <v>0.91641381013964</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-2.78243377514005</v>
+        <v>-2.75449786425243</v>
       </c>
       <c r="C27">
-        <v>0.870071395703294</v>
+        <v>0.878990346048213</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-2.61720573684287</v>
+        <v>-2.58914360003319</v>
       </c>
       <c r="C28">
-        <v>0.814600345405668</v>
+        <v>0.820259101749224</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-2.47745286088989</v>
+        <v>-2.45052242046232</v>
       </c>
       <c r="C29">
-        <v>0.742025110548131</v>
+        <v>0.74476354798708</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-2.3617816528825</v>
+        <v>-2.33651704554971</v>
       </c>
       <c r="C30">
-        <v>0.656425040874699</v>
+        <v>0.656662139307647</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-2.26675472672131</v>
+        <v>-2.24323305929734</v>
       </c>
       <c r="C31">
-        <v>0.56112660672949</v>
+        <v>0.55926067857645</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-2.18861325724818</v>
+        <v>-2.16668288826942</v>
       </c>
       <c r="C32">
-        <v>0.458642680913315</v>
+        <v>0.455012344228724</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-2.12403845410386</v>
+        <v>-2.10345584278357</v>
       </c>
       <c r="C33">
-        <v>0.350808853665035</v>
+        <v>0.345687113794622</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-2.07035943626403</v>
+        <v>-2.05085687472457</v>
       </c>
       <c r="C34">
-        <v>0.23895400731407</v>
+        <v>0.232555386456376</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-2.02552855086388</v>
+        <v>-2.00684217082579</v>
       </c>
       <c r="C35">
-        <v>0.124045164777881</v>
+        <v>0.116535950569895</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.98802909980848</v>
+        <v>-1.96990662473212</v>
       </c>
       <c r="C36">
-        <v>0.00679574380944476</v>
+        <v>-0.00169654745257745</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-1.95678415546848</v>
+        <v>-1.93898280913234</v>
       </c>
       <c r="C37">
-        <v>-0.112257292008839</v>
+        <v>-0.121636406519242</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-1.93109143327455</v>
+        <v>-1.91337087631801</v>
       </c>
       <c r="C38">
-        <v>-0.232698870646489</v>
+        <v>-0.242894408462821</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.91059429065529</v>
+        <v>-1.89270644655343</v>
       </c>
       <c r="C39">
-        <v>-0.35419629209839</v>
+        <v>-0.365160282640141</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.89529898003359</v>
+        <v>-1.87697500527779</v>
       </c>
       <c r="C40">
-        <v>-0.476468647402147</v>
+        <v>-0.488174062778826</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.88565964084838</v>
+        <v>-1.8665934872283</v>
       </c>
       <c r="C41">
-        <v>-0.599259721087993</v>
+        <v>-0.61170114290198</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.88278144034043</v>
+        <v>-1.86260961435891</v>
       </c>
       <c r="C42">
-        <v>-0.722307900973174</v>
+        <v>-0.735505042102614</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-1.88886344372408</v>
+        <v>-1.86714390824482</v>
       </c>
       <c r="C43">
-        <v>-0.845301961088494</v>
+        <v>-0.859307646022688</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.90819508843851</v>
+        <v>-1.88440565821529</v>
       </c>
       <c r="C44">
-        <v>-0.967796974330926</v>
+        <v>-0.982712894237052</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-1.94960769924878</v>
+        <v>-1.92327126463896</v>
       </c>
       <c r="C45">
-        <v>-1.08901693384281</v>
+        <v>-1.1050231748476</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-2.0333462051633</v>
+        <v>-2.00487837045016</v>
       </c>
       <c r="C46">
-        <v>-1.20729047918554</v>
+        <v>-1.22469134393606</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-2.21340129389343</v>
+        <v>-2.18955624778154</v>
       </c>
       <c r="C47">
-        <v>-1.31803597262728</v>
+        <v>-1.33720954343598</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-2.64510077524646</v>
+        <v>-2.67181977050765</v>
       </c>
       <c r="C48">
-        <v>-1.40496847470511</v>
+        <v>-1.42454820636707</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-2.84396952795735</v>
+        <v>-2.72269762632666</v>
       </c>
       <c r="C49">
-        <v>-1.41900988029902</v>
+        <v>-1.42822659793343</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.87119288188691</v>
+        <v>2.75528678934429</v>
       </c>
       <c r="C50">
-        <v>-1.4175715809113</v>
+        <v>-1.42542590292071</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.31686435935154</v>
+        <v>2.23303221093749</v>
       </c>
       <c r="C51">
-        <v>-1.34715809799914</v>
+        <v>-1.34424478816063</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.08162918776924</v>
+        <v>2.0287042558997</v>
       </c>
       <c r="C52">
-        <v>-1.24154492119307</v>
+        <v>-1.23386147682694</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.97521215979986</v>
+        <v>1.93839595393525</v>
       </c>
       <c r="C53">
-        <v>-1.1252168925591</v>
+        <v>-1.11514963003479</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.92275750955142</v>
+        <v>1.89499108361532</v>
       </c>
       <c r="C54">
-        <v>-1.00490335005416</v>
+        <v>-0.993381623350998</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.89718710286988</v>
+        <v>1.87502621456802</v>
       </c>
       <c r="C55">
-        <v>-0.882881013464256</v>
+        <v>-0.870335070530694</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.88713101961489</v>
+        <v>1.86871626100986</v>
       </c>
       <c r="C56">
-        <v>-0.760137647638503</v>
+        <v>-0.7467949243327</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.88720243443669</v>
+        <v>1.87144003203029</v>
       </c>
       <c r="C57">
-        <v>-0.637204409041251</v>
+        <v>-0.623196310583646</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.89466171260873</v>
+        <v>1.88086584553609</v>
       </c>
       <c r="C58">
-        <v>-0.514430012580221</v>
+        <v>-0.499836793099435</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.90810372148199</v>
+        <v>1.89582558487487</v>
       </c>
       <c r="C59">
-        <v>-0.392090906777986</v>
+        <v>-0.376963013193241</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.9268859255937</v>
+        <v>1.91582614030938</v>
       </c>
       <c r="C60">
-        <v>-0.270445280841</v>
+        <v>-0.254814625510323</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.95086575438156</v>
+        <v>1.94082787612493</v>
       </c>
       <c r="C61">
-        <v>-0.149766678217257</v>
+        <v>-0.133653272556621</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.98028435450752</v>
+        <v>1.97115101429683</v>
       </c>
       <c r="C62">
-        <v>-0.0303716296969292</v>
+        <v>-0.0137881039960105</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.01573008435072</v>
+        <v>2.00745355339998</v>
       </c>
       <c r="C63">
-        <v>0.0873511705627099</v>
+        <v>0.104395732610531</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.05815336430143</v>
+        <v>2.05075736245955</v>
       </c>
       <c r="C64">
-        <v>0.202904546903768</v>
+        <v>0.220400357452261</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.10892015345494</v>
+        <v>2.10251259821092</v>
       </c>
       <c r="C65">
-        <v>0.315633595489077</v>
+        <v>0.333564276875902</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.16989481944428</v>
+        <v>2.16469298079512</v>
       </c>
       <c r="C66">
-        <v>0.424656496760569</v>
+        <v>0.442989843114068</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.24353376465398</v>
+        <v>2.23990358638609</v>
       </c>
       <c r="C67">
-        <v>0.528767132413582</v>
+        <v>0.547439906565925</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.33293856725078</v>
+        <v>2.33144617138121</v>
       </c>
       <c r="C68">
-        <v>0.626302562371215</v>
+        <v>0.645195597911311</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2.44174073683626</v>
+        <v>2.44319949290248</v>
       </c>
       <c r="C69">
-        <v>0.714979304766604</v>
+        <v>0.733878917680299</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.5735519239795</v>
+        <v>2.57901127792869</v>
       </c>
       <c r="C70">
-        <v>0.791738690431648</v>
+        <v>0.810284671451688</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.73058067887961</v>
+        <v>2.74114362254575</v>
       </c>
       <c r="C71">
-        <v>0.852726080061326</v>
+        <v>0.870363272097778</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.91124639751699</v>
+        <v>2.92759942353417</v>
       </c>
       <c r="C72">
-        <v>0.893649552811747</v>
+        <v>0.909633881871239</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-3.10784295029683</v>
+        <v>-3.12963238838523</v>
       </c>
       <c r="C73">
-        <v>0.910755929229217</v>
+        <v>0.92428445390386</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-2.9762178202125</v>
+        <v>-2.95058649139702</v>
       </c>
       <c r="C74">
-        <v>0.90221043046322</v>
+        <v>0.912665583419518</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-2.78899418374725</v>
+        <v>-2.76172453867583</v>
       </c>
       <c r="C75">
-        <v>0.868951365298687</v>
+        <v>0.876096446096892</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-2.62356376811726</v>
+        <v>-2.59654143596846</v>
       </c>
       <c r="C76">
-        <v>0.814238309366359</v>
+        <v>0.818212537379503</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-2.48338002022807</v>
+        <v>-2.45772436277204</v>
       </c>
       <c r="C77">
-        <v>0.742322759484159</v>
+        <v>0.743486978199747</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-2.36720557323375</v>
+        <v>-2.34335321435853</v>
       </c>
       <c r="C78">
-        <v>0.657274238924221</v>
+        <v>0.656052602965599</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-2.27169386343938</v>
+        <v>-2.24966226160635</v>
       </c>
       <c r="C79">
-        <v>0.562429723331886</v>
+        <v>0.559217367872413</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-2.19312603468612</v>
+        <v>-2.17273135650957</v>
       </c>
       <c r="C80">
-        <v>0.460319290758312</v>
+        <v>0.455448139131328</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-2.12819480710187</v>
+        <v>-2.10917946426626</v>
       </c>
       <c r="C81">
-        <v>0.352795522516564</v>
+        <v>0.346531008486212</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-2.07422788708303</v>
+        <v>-2.05632188440898</v>
       </c>
       <c r="C82">
-        <v>0.241201672020465</v>
+        <v>0.233751160958108</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-2.02917163230048</v>
+        <v>-2.01211675634938</v>
       </c>
       <c r="C83">
-        <v>0.126516195367586</v>
+        <v>0.118039806549293</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-1.99150268006756</v>
+        <v>-1.97505828736402</v>
       </c>
       <c r="C84">
-        <v>0.00946142410046271</v>
+        <v>8.17257531477363e-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-1.96013839185131</v>
+        <v>-1.94407867619769</v>
       </c>
       <c r="C85">
-        <v>-0.109418706802856</v>
+        <v>-0.11960909117606</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-1.9343723065265</v>
+        <v>-1.91847965235139</v>
       </c>
       <c r="C86">
-        <v>-0.229703558759516</v>
+        <v>-0.240636461420545</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-1.91384526182555</v>
+        <v>-1.89790154593582</v>
       </c>
       <c r="C87">
-        <v>-0.351055812828949</v>
+        <v>-0.36268395462827</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-1.89856252879164</v>
+        <v>-1.88233892987713</v>
       </c>
       <c r="C88">
-        <v>-0.473190494011722</v>
+        <v>-0.485485712829877</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-1.88897837298797</v>
+        <v>-1.87222389796678</v>
       </c>
       <c r="C89">
-        <v>-0.595847501195133</v>
+        <v>-0.608800870815275</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-1.8861979145027</v>
+        <v>-1.86862785645996</v>
       </c>
       <c r="C90">
-        <v>-0.718761113874474</v>
+        <v>-0.732385422835971</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-1.89241601345334</v>
+        <v>-1.8737066661512</v>
       </c>
       <c r="C91">
-        <v>-0.841615284330405</v>
+        <v>-0.855950972219989</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-1.91190056127444</v>
+        <v>-1.89171777089511</v>
       </c>
       <c r="C92">
-        <v>-0.963958979289654</v>
+        <v>-0.979085623320547</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-1.95339610305638</v>
+        <v>-1.93157964451726</v>
       </c>
       <c r="C93">
-        <v>-1.0850087125919</v>
+        <v>-1.10106477251497</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-2.03679545131379</v>
+        <v>-2.01430694151077</v>
       </c>
       <c r="C94">
-        <v>-1.20308926826279</v>
+        <v>-1.22029285328046</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-2.21448520490415</v>
+        <v>-2.19871419808652</v>
       </c>
       <c r="C95">
-        <v>-1.31366606533731</v>
+        <v>-1.33219817292339</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-2.63472345829511</v>
+        <v>-2.66763281024316</v>
       </c>
       <c r="C96">
-        <v>-1.40094776785635</v>
+        <v>-1.41913379132538</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-2.87119288188691</v>
+        <v>-2.75528678934429</v>
       </c>
       <c r="C97">
-        <v>-1.4175715809113</v>
+        <v>-1.42542590292071</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.89753456028604</v>
+        <v>2.78621008521782</v>
       </c>
       <c r="C98">
-        <v>-1.41649802989243</v>
+        <v>-1.42294750053805</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.33465169122244</v>
+        <v>2.25593607772876</v>
       </c>
       <c r="C99">
-        <v>-1.34855885762051</v>
+        <v>-1.34459159718581</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2.09213645324493</v>
+        <v>2.04353700519566</v>
       </c>
       <c r="C100">
-        <v>-1.2439879318792</v>
+        <v>-1.2354777146618</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.9821315997151</v>
+        <v>1.94893410419547</v>
       </c>
       <c r="C101">
-        <v>-1.12814762151667</v>
+        <v>-1.1174172963543</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.9277442890237</v>
+        <v>1.90307519310734</v>
       </c>
       <c r="C102">
-        <v>-1.00811503626917</v>
+        <v>-0.996056313157919</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.90101036624267</v>
+        <v>1.88157262062731</v>
       </c>
       <c r="C103">
-        <v>-0.886280925986536</v>
+        <v>-0.87330225234659</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.89018963023091</v>
+        <v>1.87422824376452</v>
       </c>
       <c r="C104">
-        <v>-0.763677497494307</v>
+        <v>-0.749993748022489</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.8897227605252</v>
+        <v>1.87621823581251</v>
       </c>
       <c r="C105">
-        <v>-0.640856151015101</v>
+        <v>-0.626591769304019</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.89678068288244</v>
+        <v>1.88510169126634</v>
       </c>
       <c r="C106">
-        <v>-0.518175940272682</v>
+        <v>-0.503407899958126</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.90990726033795</v>
+        <v>1.89964654793126</v>
       </c>
       <c r="C107">
-        <v>-0.395919007667451</v>
+        <v>-0.38069715028169</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.92842808905196</v>
+        <v>1.91931925190255</v>
       </c>
       <c r="C108">
-        <v>-0.274346770527782</v>
+        <v>-0.258704571800137</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.95217859386893</v>
+        <v>1.94405236349416</v>
       </c>
       <c r="C109">
-        <v>-0.153734496623765</v>
+        <v>-0.137695489413769</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.98138279270525</v>
+        <v>1.97414489817408</v>
       </c>
       <c r="C110">
-        <v>-0.0343993389353973</v>
+        <v>-0.0179816153513261</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2.01661369281313</v>
+        <v>2.01023634783274</v>
       </c>
       <c r="C111">
-        <v>0.0832704050365641</v>
+        <v>0.100050239506667</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>2.05880581654335</v>
+        <v>2.05332967963108</v>
       </c>
       <c r="C112">
-        <v>0.198779139044439</v>
+        <v>0.215901498741482</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>2.10930655258819</v>
+        <v>2.10485265092258</v>
       </c>
       <c r="C113">
-        <v>0.311475153264183</v>
+        <v>0.328911329796624</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2.16995684206184</v>
+        <v>2.16674941293384</v>
       </c>
       <c r="C114">
-        <v>0.420482225362701</v>
+        <v>0.43818496587036</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>2.24318272808341</v>
+        <v>2.24158382413071</v>
       </c>
       <c r="C115">
-        <v>0.524603521990219</v>
+        <v>0.542491969248465</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>2.33204766936048</v>
+        <v>2.33260026640993</v>
       </c>
       <c r="C116">
-        <v>0.622190970081128</v>
+        <v>0.640126762137944</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>2.44014111076095</v>
+        <v>2.44360321960201</v>
       </c>
       <c r="C117">
-        <v>0.710983845655962</v>
+        <v>0.728735348184492</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>2.57104445562026</v>
+        <v>2.57836282165521</v>
       </c>
       <c r="C118">
-        <v>0.787955565973755</v>
+        <v>0.805151861304777</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>2.7269847881842</v>
+        <v>2.73910680436061</v>
       </c>
       <c r="C119">
-        <v>0.849289732175883</v>
+        <v>0.865382015755004</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>2.90650074236225</v>
+        <v>2.92393211382496</v>
       </c>
       <c r="C120">
-        <v>0.890724840058492</v>
+        <v>0.905002941932459</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-3.10211767561195</v>
+        <v>-3.12437142457625</v>
       </c>
       <c r="C121">
-        <v>0.908504526757436</v>
+        <v>0.920228761064154</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-2.98251423777264</v>
+        <v>-2.95704696256595</v>
       </c>
       <c r="C122">
-        <v>0.900738709939636</v>
+        <v>0.909369229133514</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-2.79537246502958</v>
+        <v>-2.76879297525566</v>
       </c>
       <c r="C123">
-        <v>0.868275832372484</v>
+        <v>0.873644553069023</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-2.62964513736622</v>
+        <v>-2.60368817593749</v>
       </c>
       <c r="C124">
-        <v>0.814295855931554</v>
+        <v>0.816587073920461</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-2.4889697844761</v>
+        <v>-2.46461780638165</v>
       </c>
       <c r="C125">
-        <v>0.743009398299777</v>
+        <v>0.742605650807295</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-2.37225636333176</v>
+        <v>-2.34984762800544</v>
       </c>
       <c r="C126">
-        <v>0.658480287255291</v>
+        <v>0.655811356655973</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-2.27623999418658</v>
+        <v>-2.25573083019135</v>
       </c>
       <c r="C127">
-        <v>0.564058328387336</v>
+        <v>0.559516246610025</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-2.19723474848525</v>
+        <v>-2.17840788401595</v>
       </c>
       <c r="C128">
-        <v>0.462291841272572</v>
+        <v>0.456201652252504</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-2.13194005257499</v>
+        <v>-2.11452301880019</v>
       </c>
       <c r="C129">
-        <v>0.35505068671774</v>
+        <v>0.347669948935193</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-2.07767905200679</v>
+        <v>-2.06139906692969</v>
       </c>
       <c r="C130">
-        <v>0.243692396292204</v>
+        <v>0.235220990867867</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-2.03239000655383</v>
+        <v>-2.01699421560323</v>
       </c>
       <c r="C131">
-        <v>0.129206591532182</v>
+        <v>0.119798170820406</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-1.99454134520955</v>
+        <v>-1.97980052982637</v>
       </c>
       <c r="C132">
-        <v>0.0123241775866425</v>
+        <v>0.00209611752103749</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-1.9630433958401</v>
+        <v>-1.9487485029485</v>
       </c>
       <c r="C133">
-        <v>-0.106404309531849</v>
+        <v>-0.117363194191491</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-1.93718415184395</v>
+        <v>-1.92313997135846</v>
       </c>
       <c r="C134">
-        <v>-0.226553057357171</v>
+        <v>-0.238176937990873</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-1.91660026469909</v>
+        <v>-1.90261809305259</v>
       </c>
       <c r="C135">
-        <v>-0.347780557821676</v>
+        <v>-0.360022877196313</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-1.90129375789055</v>
+        <v>-1.88718387030331</v>
       </c>
       <c r="C136">
-        <v>-0.469798273021965</v>
+        <v>-0.482629682042317</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-1.89171571377181</v>
+        <v>-1.87728053593765</v>
       </c>
       <c r="C137">
-        <v>-0.592342859177829</v>
+        <v>-0.605750778031344</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-1.88896611426112</v>
+        <v>-1.87399674041453</v>
       </c>
       <c r="C138">
-        <v>-0.715145392467312</v>
+        <v>-0.729135435818578</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-1.89522742268</v>
+        <v>-1.87951274201837</v>
       </c>
       <c r="C139">
-        <v>-0.837886409111616</v>
+        <v>-0.852486279551444</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-1.91473228654045</v>
+        <v>-1.89811429914635</v>
       </c>
       <c r="C140">
-        <v>-0.960111181676552</v>
+        <v>-0.975377956846339</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-1.95611535510091</v>
+        <v>-1.93872353820711</v>
       </c>
       <c r="C141">
-        <v>-1.08103333242187</v>
+        <v>-1.0970638085732</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-2.03888435864376</v>
+        <v>-2.0221568417323</v>
       </c>
       <c r="C142">
-        <v>-1.19898343535357</v>
+        <v>-1.21591172336203</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-2.21385286906918</v>
+        <v>-2.20564347385251</v>
       </c>
       <c r="C143">
-        <v>-1.30949455810696</v>
+        <v>-1.32731853491706</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-2.62306603180933</v>
+        <v>-2.66167478857872</v>
       </c>
       <c r="C144">
-        <v>-1.39727872163565</v>
+        <v>-1.41406334123081</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-2.89753456028608</v>
+        <v>-2.78621008521782</v>
       </c>
       <c r="C145">
-        <v>-1.41649802989243</v>
+        <v>-1.42294750053805</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>2.92314097420126</v>
+        <v>2.81570245515475</v>
       </c>
       <c r="C146">
-        <v>-1.4157957331519</v>
+        <v>-1.42080502544834</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>2.35119718805911</v>
+        <v>2.27752508762242</v>
       </c>
       <c r="C147">
-        <v>-1.35024695406749</v>
+        <v>-1.34518469243281</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>2.10151221152883</v>
+        <v>2.057311365597</v>
       </c>
       <c r="C148">
-        <v>-1.24664527800175</v>
+        <v>-1.23729351368106</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.98809628559902</v>
+        <v>1.95859427531302</v>
       </c>
       <c r="C149">
-        <v>-1.13124029734097</v>
+        <v>-1.11985077620949</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.9319170060898</v>
+        <v>1.91040742393496</v>
       </c>
       <c r="C150">
-        <v>-1.01144981546095</v>
+        <v>-0.998870017368036</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.90412242043531</v>
+        <v>1.88745614095542</v>
       </c>
       <c r="C151">
-        <v>-0.889772916532957</v>
+        <v>-0.876385647319851</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.89261173266109</v>
+        <v>1.87914099475527</v>
       </c>
       <c r="C152">
-        <v>-0.767282956705938</v>
+        <v>-0.753288254753246</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.89166110112118</v>
+        <v>1.88044301884546</v>
       </c>
       <c r="C153">
-        <v>-0.644549655642866</v>
+        <v>-0.630063570212156</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.89835746385629</v>
+        <v>1.88881683523454</v>
       </c>
       <c r="C154">
-        <v>-0.521941196064664</v>
+        <v>-0.507036456373555</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.91119730681842</v>
+        <v>1.90296949071902</v>
       </c>
       <c r="C155">
-        <v>-0.399744580225786</v>
+        <v>-0.384469728190541</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.92947679307857</v>
+        <v>1.92232898399867</v>
       </c>
       <c r="C156">
-        <v>-0.278223817013848</v>
+        <v>-0.262613353021274</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.95301101832316</v>
+        <v>1.94680139903725</v>
       </c>
       <c r="C157">
-        <v>-0.157655359379417</v>
+        <v>-0.141735882081872</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.98200807931651</v>
+        <v>1.97666545544322</v>
       </c>
       <c r="C158">
-        <v>-0.0383564801583789</v>
+        <v>-0.0221511181998722</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>2.01702659105085</v>
+        <v>2.01254282253867</v>
       </c>
       <c r="C159">
-        <v>0.0792854243152328</v>
+        <v>0.0957529839788569</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>2.05898609074467</v>
+        <v>2.055418210088</v>
       </c>
       <c r="C160">
-        <v>0.194776867712127</v>
+        <v>0.211477743304792</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2145,10 +2145,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>2.1092165055442</v>
+        <v>2.10669782594448</v>
       </c>
       <c r="C161">
-        <v>0.30746989722334</v>
+        <v>0.324363665864022</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2156,10 +2156,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>2.16953700181359</v>
+        <v>2.16829769457196</v>
       </c>
       <c r="C162">
-        <v>0.416494459557478</v>
+        <v>0.433519615379699</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2167,10 +2167,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>2.24234598901629</v>
+        <v>2.24274313641178</v>
       </c>
       <c r="C163">
-        <v>0.520663503013875</v>
+        <v>0.537722609679433</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2178,10 +2178,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>2.33067337734463</v>
+        <v>2.33322609767525</v>
       </c>
       <c r="C164">
-        <v>0.618344041824986</v>
+        <v>0.635280881853857</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2189,10 +2189,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>2.43807385553853</v>
+        <v>2.44348530108833</v>
       </c>
       <c r="C165">
-        <v>0.707297649506176</v>
+        <v>0.723864247309884</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2200,10 +2200,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>2.5681089336786</v>
+        <v>2.57722614206231</v>
       </c>
       <c r="C166">
-        <v>0.78452801932848</v>
+        <v>0.800344388672672</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2211,10 +2211,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>2.72303550342602</v>
+        <v>2.73665665249717</v>
       </c>
       <c r="C167">
-        <v>0.846253065821605</v>
+        <v>0.860777858259467</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>2.90151683949391</v>
+        <v>2.91997496098092</v>
       </c>
       <c r="C168">
-        <v>0.888235558686131</v>
+        <v>0.900792364028547</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2233,10 +2233,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-3.09630014446453</v>
+        <v>-3.11897949167196</v>
       </c>
       <c r="C169">
-        <v>0.90670937309765</v>
+        <v>0.916620296511605</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2244,10 +2244,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-2.98875141440279</v>
+        <v>-2.96347698536884</v>
       </c>
       <c r="C170">
-        <v>0.899725582073698</v>
+        <v>0.906526841992651</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2255,10 +2255,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-2.80156140148544</v>
+        <v>-2.77569796283305</v>
       </c>
       <c r="C171">
-        <v>0.868044391203812</v>
+        <v>0.871635927186968</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2266,10 +2266,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-2.6354419967427</v>
+        <v>-2.6105783104871</v>
       </c>
       <c r="C172">
-        <v>0.814771429421277</v>
+        <v>0.815383058486305</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2277,10 +2277,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-2.49421365395055</v>
+        <v>-2.47119629597235</v>
       </c>
       <c r="C173">
-        <v>0.744082174731813</v>
+        <v>0.742118797169496</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-2.37692526719918</v>
+        <v>-2.35599299492849</v>
       </c>
       <c r="C174">
-        <v>0.660038985442738</v>
+        <v>0.655936367054317</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2299,10 +2299,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-2.28038452343477</v>
+        <v>-2.26143098289214</v>
       </c>
       <c r="C175">
-        <v>0.566006916959098</v>
+        <v>0.560153963132805</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2310,10 +2310,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-2.20093125622176</v>
+        <v>-2.18370452045042</v>
       </c>
       <c r="C176">
-        <v>0.464553621456071</v>
+        <v>0.457268230319549</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2321,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-2.13526666866322</v>
+        <v>-2.11947861805319</v>
       </c>
       <c r="C177">
-        <v>0.357566546221799</v>
+        <v>0.349098032810319</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2332,10 +2332,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-2.08070611344913</v>
+        <v>-2.06608074230779</v>
       </c>
       <c r="C178">
-        <v>0.24641740506081</v>
+        <v>0.236957788018271</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2343,10 +2343,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-2.03517760156501</v>
+        <v>-2.02146716716007</v>
       </c>
       <c r="C179">
-        <v>0.132106704213083</v>
+        <v>0.121802828374411</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2354,10 +2354,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-1.99713979920196</v>
+        <v>-1.98412633054414</v>
       </c>
       <c r="C180">
-        <v>0.0153735659321252</v>
+        <v>0.00433733270745434</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2365,10 +2365,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-1.96549469162028</v>
+        <v>-1.95298568371104</v>
       </c>
       <c r="C181">
-        <v>-0.103225259485888</v>
+        <v>-0.114909060880695</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2376,10 +2376,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-1.93952339412172</v>
+        <v>-1.92734571729359</v>
       </c>
       <c r="C182">
-        <v>-0.223259193443621</v>
+        <v>-0.235527223510222</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2387,10 +2387,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-1.91885676918642</v>
+        <v>-1.90685058108917</v>
       </c>
       <c r="C183">
-        <v>-0.344382981773341</v>
+        <v>-0.357189488517792</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2398,10 +2398,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-1.9034914324634</v>
+        <v>-1.89150513836428</v>
       </c>
       <c r="C184">
-        <v>-0.466305037682251</v>
+        <v>-0.479619501537641</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2409,10 +2409,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-1.89387215362409</v>
+        <v>-1.88175991134487</v>
       </c>
       <c r="C185">
-        <v>-0.588759425067212</v>
+        <v>-0.602565562500925</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2420,10 +2420,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-1.89108900736521</v>
+        <v>-1.87871469054755</v>
       </c>
       <c r="C186">
-        <v>-0.711474922240956</v>
+        <v>-0.725771062898768</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2431,10 +2431,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-1.89730448507708</v>
+        <v>-1.88456390144955</v>
       </c>
       <c r="C187">
-        <v>-0.834130038797757</v>
+        <v>-0.848931005774323</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2442,10 +2442,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-1.91670356866376</v>
+        <v>-1.90360343687373</v>
       </c>
       <c r="C188">
-        <v>-0.956268703008214</v>
+        <v>-0.971609020805991</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2453,10 +2453,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-1.95779075583924</v>
+        <v>-1.94472503114751</v>
       </c>
       <c r="C189">
-        <v>-1.07710603052598</v>
+        <v>-1.09304133602476</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-2.03966232983011</v>
+        <v>-2.02848469453955</v>
       </c>
       <c r="C190">
-        <v>-1.19498734623519</v>
+        <v>-1.21157075419607</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-2.2115986935279</v>
+        <v>-2.21049420267178</v>
       </c>
       <c r="C191">
-        <v>-1.30553156823207</v>
+        <v>-1.32259181651963</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,10 +2486,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-2.61018654325321</v>
+        <v>-2.65411918277482</v>
       </c>
       <c r="C192">
-        <v>-1.39396037523727</v>
+        <v>-1.40934074318982</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2497,10 +2497,10 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-2.92314097420126</v>
+        <v>-2.81570245515475</v>
       </c>
       <c r="C193">
-        <v>-1.4157957331519</v>
+        <v>-1.42080502544834</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2508,10 +2508,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>2.94814631956073</v>
+        <v>2.84396952795736</v>
       </c>
       <c r="C194">
-        <v>-1.41546997042638</v>
+        <v>-1.41900988029902</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2519,10 +2519,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>2.36650095100174</v>
+        <v>2.29782722569241</v>
       </c>
       <c r="C195">
-        <v>-1.35222920100823</v>
+        <v>-1.34603654415477</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2530,10 +2530,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>2.10972838667023</v>
+        <v>2.07001420117412</v>
       </c>
       <c r="C196">
-        <v>-1.24951741506388</v>
+        <v>-1.23931447038897</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2541,10 +2541,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.99308257672829</v>
+        <v>1.9673597265578</v>
       </c>
       <c r="C197">
-        <v>-1.13449107448903</v>
+        <v>-1.1224507728663</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2552,10 +2552,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.935258367596</v>
+        <v>1.91697325931654</v>
       </c>
       <c r="C198">
-        <v>-1.01490124515149</v>
+        <v>-1.00182019284223</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2563,10 +2563,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.90651080221885</v>
+        <v>1.89266496804216</v>
       </c>
       <c r="C199">
-        <v>-0.893348885595218</v>
+        <v>-0.879580441538279</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2574,10 +2574,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.89438834956338</v>
+        <v>1.88344504788099</v>
       </c>
       <c r="C200">
-        <v>-0.770944801371816</v>
+        <v>-0.756671947255202</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2585,10 +2585,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.89301105904856</v>
+        <v>1.88410684744159</v>
       </c>
       <c r="C201">
-        <v>-0.648274900182717</v>
+        <v>-0.633603906707515</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2596,10 +2596,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.8993876577826</v>
+        <v>1.89200536390676</v>
       </c>
       <c r="C202">
-        <v>-0.525715174239649</v>
+        <v>-0.510713599155212</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2607,10 +2607,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.91197109834418</v>
+        <v>1.90578991110544</v>
       </c>
       <c r="C203">
-        <v>-0.403556591476176</v>
+        <v>-0.388271008569503</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2618,10 +2618,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.93003069213273</v>
+        <v>1.9248521264603</v>
       </c>
       <c r="C204">
-        <v>-0.282065082993253</v>
+        <v>-0.266530494891438</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2629,10 +2629,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.95336298515811</v>
+        <v>1.94907302247668</v>
       </c>
       <c r="C205">
-        <v>-0.161517731825588</v>
+        <v>-0.145763356088794</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2640,10 +2640,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.98216144024399</v>
+        <v>1.97871200478066</v>
       </c>
       <c r="C206">
-        <v>-0.0422314242537389</v>
+        <v>-0.0262850039355322</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2651,10 +2651,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>2.01697130448423</v>
+        <v>2.01437367508415</v>
       </c>
       <c r="C207">
-        <v>0.0754078432690041</v>
+        <v>0.0915159802873779</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2662,10 +2662,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>2.05869809902782</v>
+        <v>2.05702520446173</v>
       </c>
       <c r="C208">
-        <v>0.190909209462235</v>
+        <v>0.207141387469443</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2673,10 +2673,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>2.10865544412574</v>
+        <v>2.10805217850577</v>
       </c>
       <c r="C209">
-        <v>0.30362901590274</v>
+        <v>0.319933709691217</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2684,10 +2684,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>2.16864240888565</v>
+        <v>2.16934400791566</v>
       </c>
       <c r="C210">
-        <v>0.412703913532398</v>
+        <v>0.429006141767585</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2695,10 +2695,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>2.241032475886</v>
+        <v>2.24339018862854</v>
       </c>
       <c r="C211">
-        <v>0.516957082416206</v>
+        <v>0.533143829598722</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2706,10 +2706,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>2.32882646705246</v>
+        <v>2.33333509510132</v>
       </c>
       <c r="C212">
-        <v>0.614770794720739</v>
+        <v>0.63066924545036</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2717,10 +2717,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>2.4355513521349</v>
+        <v>2.44285989650333</v>
       </c>
       <c r="C213">
-        <v>0.703928428466223</v>
+        <v>0.71927573427635</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2728,10 +2728,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>2.56475862731103</v>
+        <v>2.57561737681781</v>
       </c>
       <c r="C214">
-        <v>0.78146216812029</v>
+        <v>0.795870715744698</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2739,10 +2739,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>2.71874572695205</v>
+        <v>2.73380947714577</v>
       </c>
       <c r="C215">
-        <v>0.843620450363415</v>
+        <v>0.856557246342881</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2750,10 +2750,10 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>2.89630587111151</v>
+        <v>2.91574197532029</v>
       </c>
       <c r="C216">
-        <v>0.886184421008379</v>
+        <v>0.897006575138832</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2761,10 +2761,10 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-3.09039934259546</v>
+        <v>-3.1134667280733</v>
       </c>
       <c r="C217">
-        <v>0.90537182282391</v>
+        <v>0.913461874374685</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2772,10 +2772,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-2.99492167659761</v>
+        <v>-2.96986963956947</v>
       </c>
       <c r="C218">
-        <v>0.899171309277286</v>
+        <v>0.9041401309718</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2783,10 +2783,10 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-2.8075532777414</v>
+        <v>-2.78243377514005</v>
       </c>
       <c r="C219">
-        <v>0.868256239979271</v>
+        <v>0.870071395703294</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2794,10 +2794,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-2.64094591202296</v>
+        <v>-2.61720573684287</v>
       </c>
       <c r="C220">
-        <v>0.81566301817664</v>
+        <v>0.814600345405668</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2805,10 +2805,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-2.4991026142867</v>
+        <v>-2.47745286088989</v>
       </c>
       <c r="C221">
-        <v>0.745537734736416</v>
+        <v>0.742025110548131</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2816,10 +2816,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-2.38120316484291</v>
+        <v>-2.3617816528825</v>
       </c>
       <c r="C222">
-        <v>0.661945612057044</v>
+        <v>0.656425040874699</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2827,10 +2827,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-2.28411866258062</v>
+        <v>-2.26675472672131</v>
       </c>
       <c r="C223">
-        <v>0.568269471161088</v>
+        <v>0.56112660672949</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2838,10 +2838,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-2.2042073838682</v>
+        <v>-2.18861325724818</v>
       </c>
       <c r="C224">
-        <v>0.467097438256391</v>
+        <v>0.458642680913315</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2849,10 +2849,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>-2.13816724359503</v>
+        <v>-2.12403845410386</v>
       </c>
       <c r="C225">
-        <v>0.360334867404806</v>
+        <v>0.350808853665035</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2860,10 +2860,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-2.0833024853455</v>
+        <v>-2.07035943626403</v>
       </c>
       <c r="C226">
-        <v>0.249367551465053</v>
+        <v>0.23895400731407</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2871,10 +2871,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-2.03752868142304</v>
+        <v>-2.02552855086388</v>
       </c>
       <c r="C227">
-        <v>0.135206584827344</v>
+        <v>0.124045164777881</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2882,10 +2882,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-1.99929317445196</v>
+        <v>-1.98802909980848</v>
       </c>
       <c r="C228">
-        <v>0.0185989325749851</v>
+        <v>0.00679574380944476</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2893,10 +2893,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>-1.9674883160154</v>
+        <v>-1.95678415546848</v>
       </c>
       <c r="C229">
-        <v>-0.0998928441071852</v>
+        <v>-0.112257292008839</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2904,10 +2904,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-1.94138705047373</v>
+        <v>-1.93109143327455</v>
       </c>
       <c r="C230">
-        <v>-0.219833822477941</v>
+        <v>-0.232698870646489</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2915,10 +2915,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-1.92061291466998</v>
+        <v>-1.91059429065529</v>
       </c>
       <c r="C231">
-        <v>-0.340875456518427</v>
+        <v>-0.35419629209839</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2926,10 +2926,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-1.90515506229036</v>
+        <v>-1.89529898003359</v>
       </c>
       <c r="C232">
-        <v>-0.462723632050443</v>
+        <v>-0.476468647402147</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2937,10 +2937,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-1.89544899669883</v>
+        <v>-1.88565964084838</v>
       </c>
       <c r="C233">
-        <v>-0.585110473041829</v>
+        <v>-0.599259721087993</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-1.89257042398672</v>
+        <v>-1.88278144034043</v>
       </c>
       <c r="C234">
-        <v>-0.707763357621359</v>
+        <v>-0.722307900973174</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2959,10 +2959,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-1.89865486335328</v>
+        <v>-1.88886344372408</v>
       </c>
       <c r="C235">
-        <v>-0.830360129196523</v>
+        <v>-0.845301961088494</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2970,10 +2970,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-1.91782836373242</v>
+        <v>-1.90819508843851</v>
       </c>
       <c r="C236">
-        <v>-0.952445640020924</v>
+        <v>-0.967796974330926</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2981,10 +2981,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-1.95844749262</v>
+        <v>-1.94960769924878</v>
       </c>
       <c r="C237">
-        <v>-1.07324065551047</v>
+        <v>-1.08901693384281</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2992,10 +2992,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-2.0391759993701</v>
+        <v>-2.0333462051633</v>
       </c>
       <c r="C238">
-        <v>-1.19111352385665</v>
+        <v>-1.20729047918554</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3003,10 +3003,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-2.20780556663001</v>
+        <v>-2.21340129389343</v>
       </c>
       <c r="C239">
-        <v>-1.30178508162826</v>
+        <v>-1.31803597262728</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3014,10 +3014,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-2.59612555406382</v>
+        <v>-2.64510077524646</v>
       </c>
       <c r="C240">
-        <v>-1.39099075089466</v>
+        <v>-1.40496847470511</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3025,10 +3025,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-2.94814631956071</v>
+        <v>-2.84396952795735</v>
       </c>
       <c r="C241">
-        <v>-1.41546997042638</v>
+        <v>-1.41900988029902</v>
       </c>
     </row>
   </sheetData>
